--- a/90.documents/DATA_DICTIONARY.xlsx
+++ b/90.documents/DATA_DICTIONARY.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/kazunori_komai_accenture_com/Documents/HOME/31.トレーニング・勉強会/PortoSeguro/01.data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/kaggle/PortoSeguro/90.documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10815"/>
+    <workbookView xWindow="10260" yWindow="700" windowWidth="18120" windowHeight="14600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="データ項目" sheetId="1" r:id="rId1"/>
+    <sheet name="XGB parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">データ項目!$B$2:$E$61</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -207,47 +214,47 @@
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Columun</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>バイナリ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カテゴリ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>group</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ind</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>reg</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>car</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>calc</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>連続／順位</t>
@@ -257,18 +264,204 @@
     <rPh sb="3" eb="5">
       <t>ジュンイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通変数</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">booster </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gbtree</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>silent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0にすると起動中のメッセージを出力し、１にすると出力しない</t>
+    <rPh sb="5" eb="8">
+      <t>キドウチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nthread</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>並列処理を行うスレッドの数</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイレツショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>num_pbuffer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動設定のため変更する必要なし</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウセッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>num_feature</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブースター変数</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gbtree、gblinearのいずれのブースターを利用するか指定する</t>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特徴の重みを縮小させる</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gamma</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損失還元の最小値で、ツリーのノードを分割する際に必要な値</t>
+    <rPh sb="0" eb="2">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>max_depth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://puyokw.hatenablog.com/entry/2015/04/11/040941</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>min_child_weight</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>max_delta_step</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Osaka"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -278,16 +471,36 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -295,18 +508,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,860 +871,1001 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="4.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26">
+    <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28">
+    <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29">
+    <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="31" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="32" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35">
+    <row r="35" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="36" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="37" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="38" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39">
+    <row r="39" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40">
+    <row r="40" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="41" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="42" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="D42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="D44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="2">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="D47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="2">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="D48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50">
+      <c r="D49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="D52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="2">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54">
+      <c r="D53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="2">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55">
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="2">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56">
+      <c r="D55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="2">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57">
+      <c r="E56" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="2">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58">
+      <c r="E57" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59">
+      <c r="E58" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60">
+      <c r="E59" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="2">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="E60" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="2">
         <v>59</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="61.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="13" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/90.documents/DATA_DICTIONARY.xlsx
+++ b/90.documents/DATA_DICTIONARY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="700" windowWidth="18120" windowHeight="14600" activeTab="1"/>
+    <workbookView xWindow="9320" yWindow="960" windowWidth="18120" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="データ項目" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -443,6 +443,14 @@
   </si>
   <si>
     <t>max_delta_step</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>missing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -869,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E61"/>
+  <dimension ref="B2:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -885,7 +893,7 @@
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
@@ -898,8 +906,11 @@
       <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -912,8 +923,9 @@
       <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -926,8 +938,9 @@
       <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -954,8 +968,9 @@
       <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -968,8 +983,9 @@
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -982,8 +998,9 @@
       <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -996,8 +1013,11 @@
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1010,8 +1030,9 @@
       <c r="E10" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1024,8 +1045,9 @@
       <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1038,8 +1060,9 @@
       <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1052,8 +1075,9 @@
       <c r="E13" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1066,8 +1090,9 @@
       <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1080,8 +1105,9 @@
       <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1094,8 +1120,9 @@
       <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1108,8 +1135,9 @@
       <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1122,8 +1150,9 @@
       <c r="E18" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1136,8 +1165,9 @@
       <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1150,8 +1180,9 @@
       <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1164,8 +1195,9 @@
       <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="E22" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -1192,8 +1225,9 @@
       <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -1206,8 +1240,9 @@
       <c r="E24" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -1220,8 +1255,11 @@
       <c r="E25" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -1234,8 +1272,9 @@
       <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -1248,8 +1287,9 @@
       <c r="E27" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -1262,8 +1302,11 @@
       <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -1276,8 +1319,9 @@
       <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -1290,8 +1334,11 @@
       <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -1304,8 +1351,9 @@
       <c r="E31" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -1318,8 +1366,11 @@
       <c r="E32" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -1332,8 +1383,9 @@
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -1346,8 +1398,11 @@
       <c r="E34" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -1360,8 +1415,9 @@
       <c r="E35" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -1374,8 +1430,9 @@
       <c r="E36" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -1388,8 +1445,9 @@
       <c r="E37" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>36</v>
       </c>
@@ -1402,8 +1460,9 @@
       <c r="E38" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>37</v>
       </c>
@@ -1416,8 +1475,9 @@
       <c r="E39" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -1430,8 +1490,11 @@
       <c r="E40" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>39</v>
       </c>
@@ -1444,8 +1507,9 @@
       <c r="E41" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -1458,8 +1522,9 @@
       <c r="E42" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>41</v>
       </c>
@@ -1472,8 +1537,9 @@
       <c r="E43" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>42</v>
       </c>
@@ -1486,8 +1552,9 @@
       <c r="E44" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>43</v>
       </c>
@@ -1500,8 +1567,9 @@
       <c r="E45" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>44</v>
       </c>
@@ -1514,8 +1582,9 @@
       <c r="E46" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -1528,8 +1597,9 @@
       <c r="E47" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -1542,8 +1612,9 @@
       <c r="E48" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -1556,8 +1627,9 @@
       <c r="E49" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>48</v>
       </c>
@@ -1570,8 +1642,9 @@
       <c r="E50" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -1584,8 +1657,9 @@
       <c r="E51" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -1598,8 +1672,9 @@
       <c r="E52" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>51</v>
       </c>
@@ -1612,8 +1687,9 @@
       <c r="E53" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -1626,8 +1702,9 @@
       <c r="E54" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>53</v>
       </c>
@@ -1640,8 +1717,9 @@
       <c r="E55" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>54</v>
       </c>
@@ -1654,8 +1732,9 @@
       <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>55</v>
       </c>
@@ -1668,8 +1747,9 @@
       <c r="E57" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>56</v>
       </c>
@@ -1682,8 +1762,9 @@
       <c r="E58" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>57</v>
       </c>
@@ -1696,8 +1777,9 @@
       <c r="E59" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>58</v>
       </c>
@@ -1710,8 +1792,9 @@
       <c r="E60" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>59</v>
       </c>
@@ -1724,6 +1807,7 @@
       <c r="E61" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="F61" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1736,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
